--- a/docs/00-preamble/pie-chart-overview.xlsx
+++ b/docs/00-preamble/pie-chart-overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstarke/projects/isaqb/curriculum-foundation/docs/00-preamble/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/developer/github_isaqb/curriculum-foundation/docs/00-preamble/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144BE63-331D-6B4E-8234-7F58B07432D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1327E772-5E58-344C-A4A1-A65488CAD89D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2640" windowWidth="20700" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="2640" windowWidth="30900" windowHeight="16880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EN-Graphic" sheetId="1" r:id="rId1"/>
@@ -81,13 +81,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,10 +117,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -133,7 +138,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -152,11 +157,16 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:explosion val="19"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:explosion val="5"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="7"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-01D3-8347-BAD4-8610D9832016}"/>
@@ -166,7 +176,6 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="5"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-01D3-8347-BAD4-8610D9832016}"/>
@@ -176,7 +185,6 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="7"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-01D3-8347-BAD4-8610D9832016}"/>
@@ -186,7 +194,6 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="6"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-01D3-8347-BAD4-8610D9832016}"/>
@@ -196,7 +203,6 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="8"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-01D3-8347-BAD4-8610D9832016}"/>
@@ -206,7 +212,6 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="7"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-01D3-8347-BAD4-8610D9832016}"/>
@@ -347,6 +352,21 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -427,6 +447,12 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -448,7 +474,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -467,11 +493,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:explosion val="19"/>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:explosion val="5"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="7"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-A4C3-CF4A-A4D5-5E2A8878AA85}"/>
@@ -481,7 +509,6 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="5"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-A4C3-CF4A-A4D5-5E2A8878AA85}"/>
@@ -491,7 +518,6 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="7"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-A4C3-CF4A-A4D5-5E2A8878AA85}"/>
@@ -501,7 +527,6 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="6"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A4C3-CF4A-A4D5-5E2A8878AA85}"/>
@@ -511,7 +536,6 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="8"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-A4C3-CF4A-A4D5-5E2A8878AA85}"/>
@@ -521,7 +545,6 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="7"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-A4C3-CF4A-A4D5-5E2A8878AA85}"/>
@@ -662,6 +685,21 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -742,6 +780,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1168,45 +1211,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="42" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>90</v>
       </c>
     </row>
@@ -1214,12 +1259,12 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="B6" s="1">
         <f>SUM(B1:B5)</f>
         <v>900</v>
       </c>
@@ -1234,57 +1279,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="42" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>390</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>240</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1292,15 +1339,15 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="B6" s="1">
         <f>SUM(B1:B5)</f>
         <v>900</v>
       </c>
@@ -1317,126 +1364,129 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="249" zoomScaleNormal="249" zoomScalePageLayoutView="249" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>B2+C2</f>
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>120</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D8" si="0">B3+C3</f>
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>300</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>90</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>150</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>90</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>45</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10">
+      <c r="D10" s="1">
         <f>SUM(D2:D8)</f>
         <v>960</v>
       </c>
